--- a/КМК с 01.02.xlsx
+++ b/КМК с 01.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="11595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1286">
   <si>
     <t>№</t>
   </si>
@@ -3871,6 +3871,12 @@
   </si>
   <si>
     <t>public://1476_.jpg</t>
+  </si>
+  <si>
+    <t>2-15 дней</t>
+  </si>
+  <si>
+    <t>Стеллажи</t>
   </si>
 </sst>
 </file>
@@ -32015,7 +32021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
@@ -36744,8 +36750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255:XFD256"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36844,7 +36850,7 @@
         <v>323</v>
       </c>
       <c r="K2" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -36873,7 +36879,7 @@
         <v>323</v>
       </c>
       <c r="K3" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -36902,7 +36908,7 @@
         <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -36931,7 +36937,7 @@
         <v>323</v>
       </c>
       <c r="K5" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -36960,7 +36966,7 @@
         <v>323</v>
       </c>
       <c r="K6" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -36989,7 +36995,7 @@
         <v>323</v>
       </c>
       <c r="K7" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -37018,7 +37024,7 @@
         <v>323</v>
       </c>
       <c r="K8" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -37047,7 +37053,7 @@
         <v>323</v>
       </c>
       <c r="K9" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -37076,7 +37082,7 @@
         <v>323</v>
       </c>
       <c r="K10" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -37105,7 +37111,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -37134,7 +37140,7 @@
         <v>323</v>
       </c>
       <c r="K12" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -37163,7 +37169,7 @@
         <v>323</v>
       </c>
       <c r="K13" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -37192,7 +37198,7 @@
         <v>323</v>
       </c>
       <c r="K14" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -37221,7 +37227,7 @@
         <v>323</v>
       </c>
       <c r="K15" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -37250,7 +37256,7 @@
         <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -37279,7 +37285,7 @@
         <v>75</v>
       </c>
       <c r="K17" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -37308,7 +37314,7 @@
         <v>75</v>
       </c>
       <c r="K18" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -37337,7 +37343,7 @@
         <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -37363,7 +37369,7 @@
         <v>75</v>
       </c>
       <c r="K20" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -37389,7 +37395,7 @@
         <v>75</v>
       </c>
       <c r="K21" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -37418,7 +37424,7 @@
         <v>323</v>
       </c>
       <c r="K22" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -37447,7 +37453,7 @@
         <v>323</v>
       </c>
       <c r="K23" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -37476,7 +37482,7 @@
         <v>323</v>
       </c>
       <c r="K24" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -37505,7 +37511,7 @@
         <v>323</v>
       </c>
       <c r="K25" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -37534,7 +37540,7 @@
         <v>323</v>
       </c>
       <c r="K26" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -37563,7 +37569,7 @@
         <v>323</v>
       </c>
       <c r="K27" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -37592,7 +37598,7 @@
         <v>323</v>
       </c>
       <c r="K28" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -37621,7 +37627,7 @@
         <v>323</v>
       </c>
       <c r="K29" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -37650,7 +37656,7 @@
         <v>323</v>
       </c>
       <c r="K30" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -37679,7 +37685,7 @@
         <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -37708,7 +37714,7 @@
         <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -37737,7 +37743,7 @@
         <v>323</v>
       </c>
       <c r="K33" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -37766,7 +37772,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -37795,7 +37801,7 @@
         <v>75</v>
       </c>
       <c r="K35" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -37824,7 +37830,7 @@
         <v>75</v>
       </c>
       <c r="K36" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -37853,7 +37859,7 @@
         <v>75</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -37882,7 +37888,7 @@
         <v>75</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -37911,7 +37917,7 @@
         <v>75</v>
       </c>
       <c r="K39" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -37940,7 +37946,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -37969,7 +37975,7 @@
         <v>75</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -37998,7 +38004,7 @@
         <v>75</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -38027,7 +38033,7 @@
         <v>75</v>
       </c>
       <c r="K43" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -38056,7 +38062,7 @@
         <v>322</v>
       </c>
       <c r="K44" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -38085,7 +38091,7 @@
         <v>322</v>
       </c>
       <c r="K45" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -38114,7 +38120,7 @@
         <v>75</v>
       </c>
       <c r="K46" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -38143,7 +38149,7 @@
         <v>75</v>
       </c>
       <c r="K47" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -38172,7 +38178,7 @@
         <v>75</v>
       </c>
       <c r="K48" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -38201,7 +38207,7 @@
         <v>75</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -38230,7 +38236,7 @@
         <v>75</v>
       </c>
       <c r="K50" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -38259,7 +38265,7 @@
         <v>75</v>
       </c>
       <c r="K51" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -38288,7 +38294,7 @@
         <v>75</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -38317,7 +38323,7 @@
         <v>75</v>
       </c>
       <c r="K53" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -38346,7 +38352,7 @@
         <v>322</v>
       </c>
       <c r="K54" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -38375,7 +38381,7 @@
         <v>322</v>
       </c>
       <c r="K55" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -38404,7 +38410,7 @@
         <v>75</v>
       </c>
       <c r="K56" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -38433,7 +38439,7 @@
         <v>75</v>
       </c>
       <c r="K57" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -38462,7 +38468,7 @@
         <v>75</v>
       </c>
       <c r="K58" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -38491,7 +38497,7 @@
         <v>75</v>
       </c>
       <c r="K59" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -38520,7 +38526,7 @@
         <v>75</v>
       </c>
       <c r="K60" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -38549,7 +38555,7 @@
         <v>322</v>
       </c>
       <c r="K61" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -38578,7 +38584,7 @@
         <v>322</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -38607,7 +38613,7 @@
         <v>322</v>
       </c>
       <c r="K63" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -38636,7 +38642,7 @@
         <v>322</v>
       </c>
       <c r="K64" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -38665,7 +38671,7 @@
         <v>322</v>
       </c>
       <c r="K65" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -38694,7 +38700,7 @@
         <v>322</v>
       </c>
       <c r="K66" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -38723,7 +38729,7 @@
         <v>322</v>
       </c>
       <c r="K67" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -38752,7 +38758,7 @@
         <v>322</v>
       </c>
       <c r="K68" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -38781,7 +38787,7 @@
         <v>351</v>
       </c>
       <c r="K69" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -38810,7 +38816,7 @@
         <v>351</v>
       </c>
       <c r="K70" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -38839,7 +38845,7 @@
         <v>351</v>
       </c>
       <c r="K71" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -38868,7 +38874,7 @@
         <v>351</v>
       </c>
       <c r="K72" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -38897,7 +38903,7 @@
         <v>351</v>
       </c>
       <c r="K73" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -38926,7 +38932,7 @@
         <v>351</v>
       </c>
       <c r="K74" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -38955,7 +38961,7 @@
         <v>351</v>
       </c>
       <c r="K75" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -38984,7 +38990,7 @@
         <v>351</v>
       </c>
       <c r="K76" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -39013,7 +39019,7 @@
         <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -39039,7 +39045,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -39068,7 +39074,7 @@
         <v>322</v>
       </c>
       <c r="K79" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -39097,7 +39103,7 @@
         <v>322</v>
       </c>
       <c r="K80" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -39126,7 +39132,7 @@
         <v>322</v>
       </c>
       <c r="K81" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -39155,7 +39161,7 @@
         <v>322</v>
       </c>
       <c r="K82" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -39184,7 +39190,7 @@
         <v>322</v>
       </c>
       <c r="K83" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -39210,7 +39216,7 @@
         <v>322</v>
       </c>
       <c r="K84" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -39236,7 +39242,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -39265,7 +39271,7 @@
         <v>75</v>
       </c>
       <c r="K86" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -39294,7 +39300,7 @@
         <v>75</v>
       </c>
       <c r="K87" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -39323,7 +39329,7 @@
         <v>75</v>
       </c>
       <c r="K88" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -39352,7 +39358,7 @@
         <v>75</v>
       </c>
       <c r="K89" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -39381,7 +39387,7 @@
         <v>75</v>
       </c>
       <c r="K90" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -39410,7 +39416,7 @@
         <v>322</v>
       </c>
       <c r="K91" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -39439,7 +39445,7 @@
         <v>322</v>
       </c>
       <c r="K92" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -39468,7 +39474,7 @@
         <v>322</v>
       </c>
       <c r="K93" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -39497,7 +39503,7 @@
         <v>322</v>
       </c>
       <c r="K94" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -39526,7 +39532,7 @@
         <v>322</v>
       </c>
       <c r="K95" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -39555,7 +39561,7 @@
         <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -39584,7 +39590,7 @@
         <v>322</v>
       </c>
       <c r="K97" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -39613,7 +39619,7 @@
         <v>322</v>
       </c>
       <c r="K98" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -39642,7 +39648,7 @@
         <v>322</v>
       </c>
       <c r="K99" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -39671,7 +39677,7 @@
         <v>322</v>
       </c>
       <c r="K100" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S100">
         <v>1</v>
@@ -39700,7 +39706,7 @@
         <v>322</v>
       </c>
       <c r="K101" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -39729,7 +39735,7 @@
         <v>75</v>
       </c>
       <c r="K102" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -39758,7 +39764,7 @@
         <v>75</v>
       </c>
       <c r="K103" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -39775,7 +39781,7 @@
         <v>505</v>
       </c>
       <c r="D104" t="s">
-        <v>586</v>
+        <v>1285</v>
       </c>
       <c r="F104" t="s">
         <v>1145</v>
@@ -39787,7 +39793,7 @@
         <v>322</v>
       </c>
       <c r="K104" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -39804,7 +39810,7 @@
         <v>506</v>
       </c>
       <c r="D105" t="s">
-        <v>586</v>
+        <v>1285</v>
       </c>
       <c r="F105" t="s">
         <v>1145</v>
@@ -39816,7 +39822,7 @@
         <v>322</v>
       </c>
       <c r="K105" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -39845,7 +39851,7 @@
         <v>322</v>
       </c>
       <c r="K106" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -39874,7 +39880,7 @@
         <v>322</v>
       </c>
       <c r="K107" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -39903,7 +39909,7 @@
         <v>322</v>
       </c>
       <c r="K108" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -39932,7 +39938,7 @@
         <v>322</v>
       </c>
       <c r="K109" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S109">
         <v>1</v>
@@ -39961,7 +39967,7 @@
         <v>323</v>
       </c>
       <c r="K110" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S110">
         <v>1</v>
@@ -39990,7 +39996,7 @@
         <v>323</v>
       </c>
       <c r="K111" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S111">
         <v>1</v>
@@ -40019,7 +40025,7 @@
         <v>323</v>
       </c>
       <c r="K112" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S112">
         <v>1</v>
@@ -40048,7 +40054,7 @@
         <v>323</v>
       </c>
       <c r="K113" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S113">
         <v>1</v>
@@ -40077,7 +40083,7 @@
         <v>75</v>
       </c>
       <c r="K114" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S114">
         <v>1</v>
@@ -40106,7 +40112,7 @@
         <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S115">
         <v>1</v>
@@ -40135,7 +40141,7 @@
         <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S116">
         <v>1</v>
@@ -40164,7 +40170,7 @@
         <v>75</v>
       </c>
       <c r="K117" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S117">
         <v>1</v>
@@ -40193,7 +40199,7 @@
         <v>75</v>
       </c>
       <c r="K118" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S118">
         <v>1</v>
@@ -40222,7 +40228,7 @@
         <v>75</v>
       </c>
       <c r="K119" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S119">
         <v>1</v>
@@ -40251,7 +40257,7 @@
         <v>75</v>
       </c>
       <c r="K120" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S120">
         <v>1</v>
@@ -40280,7 +40286,7 @@
         <v>323</v>
       </c>
       <c r="K121" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S121">
         <v>1</v>
@@ -40309,7 +40315,7 @@
         <v>323</v>
       </c>
       <c r="K122" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S122">
         <v>1</v>
@@ -40338,7 +40344,7 @@
         <v>323</v>
       </c>
       <c r="K123" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S123">
         <v>1</v>
@@ -40367,7 +40373,7 @@
         <v>323</v>
       </c>
       <c r="K124" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S124">
         <v>1</v>
@@ -40396,7 +40402,7 @@
         <v>323</v>
       </c>
       <c r="K125" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S125">
         <v>1</v>
@@ -40425,7 +40431,7 @@
         <v>323</v>
       </c>
       <c r="K126" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -40454,7 +40460,7 @@
         <v>323</v>
       </c>
       <c r="K127" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S127">
         <v>1</v>
@@ -40483,7 +40489,7 @@
         <v>75</v>
       </c>
       <c r="K128" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S128">
         <v>1</v>
@@ -40512,7 +40518,7 @@
         <v>75</v>
       </c>
       <c r="K129" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S129">
         <v>1</v>
@@ -40541,7 +40547,7 @@
         <v>75</v>
       </c>
       <c r="K130" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S130">
         <v>1</v>
@@ -40570,7 +40576,7 @@
         <v>75</v>
       </c>
       <c r="K131" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S131">
         <v>1</v>
@@ -40599,7 +40605,7 @@
         <v>75</v>
       </c>
       <c r="K132" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S132">
         <v>1</v>
@@ -40628,7 +40634,7 @@
         <v>75</v>
       </c>
       <c r="K133" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S133">
         <v>1</v>
@@ -40657,7 +40663,7 @@
         <v>75</v>
       </c>
       <c r="K134" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S134">
         <v>1</v>
@@ -40686,7 +40692,7 @@
         <v>75</v>
       </c>
       <c r="K135" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S135">
         <v>1</v>
@@ -40715,7 +40721,7 @@
         <v>75</v>
       </c>
       <c r="K136" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S136">
         <v>1</v>
@@ -40744,7 +40750,7 @@
         <v>75</v>
       </c>
       <c r="K137" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S137">
         <v>1</v>
@@ -40773,7 +40779,7 @@
         <v>75</v>
       </c>
       <c r="K138" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S138">
         <v>1</v>
@@ -40802,7 +40808,7 @@
         <v>75</v>
       </c>
       <c r="K139" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S139">
         <v>1</v>
@@ -40831,7 +40837,7 @@
         <v>75</v>
       </c>
       <c r="K140" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S140">
         <v>1</v>
@@ -40860,7 +40866,7 @@
         <v>75</v>
       </c>
       <c r="K141" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S141">
         <v>1</v>
@@ -40889,7 +40895,7 @@
         <v>75</v>
       </c>
       <c r="K142" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S142">
         <v>1</v>
@@ -40918,7 +40924,7 @@
         <v>75</v>
       </c>
       <c r="K143" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S143">
         <v>1</v>
@@ -40947,7 +40953,7 @@
         <v>75</v>
       </c>
       <c r="K144" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S144">
         <v>1</v>
@@ -40976,7 +40982,7 @@
         <v>75</v>
       </c>
       <c r="K145" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S145">
         <v>1</v>
@@ -41005,7 +41011,7 @@
         <v>75</v>
       </c>
       <c r="K146" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S146">
         <v>1</v>
@@ -41034,7 +41040,7 @@
         <v>75</v>
       </c>
       <c r="K147" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S147">
         <v>1</v>
@@ -41063,7 +41069,7 @@
         <v>75</v>
       </c>
       <c r="K148" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S148">
         <v>1</v>
@@ -41092,7 +41098,7 @@
         <v>75</v>
       </c>
       <c r="K149" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S149">
         <v>1</v>
@@ -41121,7 +41127,7 @@
         <v>75</v>
       </c>
       <c r="K150" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S150">
         <v>1</v>
@@ -41150,7 +41156,7 @@
         <v>75</v>
       </c>
       <c r="K151" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S151">
         <v>1</v>
@@ -41179,7 +41185,7 @@
         <v>75</v>
       </c>
       <c r="K152" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S152">
         <v>1</v>
@@ -41208,7 +41214,7 @@
         <v>75</v>
       </c>
       <c r="K153" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S153">
         <v>1</v>
@@ -41237,7 +41243,7 @@
         <v>75</v>
       </c>
       <c r="K154" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S154">
         <v>1</v>
@@ -41266,7 +41272,7 @@
         <v>75</v>
       </c>
       <c r="K155" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S155">
         <v>1</v>
@@ -41295,7 +41301,7 @@
         <v>75</v>
       </c>
       <c r="K156" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S156">
         <v>1</v>
@@ -41324,7 +41330,7 @@
         <v>75</v>
       </c>
       <c r="K157" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S157">
         <v>1</v>
@@ -41353,7 +41359,7 @@
         <v>322</v>
       </c>
       <c r="K158" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S158">
         <v>1</v>
@@ -41382,7 +41388,7 @@
         <v>322</v>
       </c>
       <c r="K159" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S159">
         <v>1</v>
@@ -41411,7 +41417,7 @@
         <v>191</v>
       </c>
       <c r="K160" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S160">
         <v>1</v>
@@ -41440,7 +41446,7 @@
         <v>322</v>
       </c>
       <c r="K161" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S161">
         <v>1</v>
@@ -41469,7 +41475,7 @@
         <v>322</v>
       </c>
       <c r="K162" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S162">
         <v>1</v>
@@ -41498,7 +41504,7 @@
         <v>322</v>
       </c>
       <c r="K163" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S163">
         <v>1</v>
@@ -41527,7 +41533,7 @@
         <v>322</v>
       </c>
       <c r="K164" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S164">
         <v>1</v>
@@ -41556,7 +41562,7 @@
         <v>322</v>
       </c>
       <c r="K165" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S165">
         <v>1</v>
@@ -41585,7 +41591,7 @@
         <v>322</v>
       </c>
       <c r="K166" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S166">
         <v>1</v>
@@ -41614,7 +41620,7 @@
         <v>322</v>
       </c>
       <c r="K167" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S167">
         <v>1</v>
@@ -41643,7 +41649,7 @@
         <v>322</v>
       </c>
       <c r="K168" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S168">
         <v>1</v>
@@ -41672,7 +41678,7 @@
         <v>322</v>
       </c>
       <c r="K169" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S169">
         <v>1</v>
@@ -41701,7 +41707,7 @@
         <v>191</v>
       </c>
       <c r="K170" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S170">
         <v>1</v>
@@ -41730,7 +41736,7 @@
         <v>191</v>
       </c>
       <c r="K171" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S171">
         <v>1</v>
@@ -41759,7 +41765,7 @@
         <v>322</v>
       </c>
       <c r="K172" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S172">
         <v>1</v>
@@ -41788,7 +41794,7 @@
         <v>322</v>
       </c>
       <c r="K173" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S173">
         <v>1</v>
@@ -41817,7 +41823,7 @@
         <v>322</v>
       </c>
       <c r="K174" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S174">
         <v>1</v>
@@ -41846,7 +41852,7 @@
         <v>322</v>
       </c>
       <c r="K175" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S175">
         <v>1</v>
@@ -41875,7 +41881,7 @@
         <v>322</v>
       </c>
       <c r="K176" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S176">
         <v>1</v>
@@ -41904,7 +41910,7 @@
         <v>322</v>
       </c>
       <c r="K177" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S177">
         <v>1</v>
@@ -41933,7 +41939,7 @@
         <v>322</v>
       </c>
       <c r="K178" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S178">
         <v>1</v>
@@ -41962,7 +41968,7 @@
         <v>322</v>
       </c>
       <c r="K179" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S179">
         <v>1</v>
@@ -41991,7 +41997,7 @@
         <v>75</v>
       </c>
       <c r="K180" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S180">
         <v>1</v>
@@ -42020,7 +42026,7 @@
         <v>75</v>
       </c>
       <c r="K181" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S181">
         <v>1</v>
@@ -42049,7 +42055,7 @@
         <v>75</v>
       </c>
       <c r="K182" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S182">
         <v>1</v>
@@ -42078,7 +42084,7 @@
         <v>75</v>
       </c>
       <c r="K183" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S183">
         <v>1</v>
@@ -42107,7 +42113,7 @@
         <v>75</v>
       </c>
       <c r="K184" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S184">
         <v>1</v>
@@ -42136,7 +42142,7 @@
         <v>75</v>
       </c>
       <c r="K185" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S185">
         <v>1</v>
@@ -42165,7 +42171,7 @@
         <v>75</v>
       </c>
       <c r="K186" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S186">
         <v>1</v>
@@ -42194,7 +42200,7 @@
         <v>75</v>
       </c>
       <c r="K187" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S187">
         <v>1</v>
@@ -42223,7 +42229,7 @@
         <v>322</v>
       </c>
       <c r="K188" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S188">
         <v>1</v>
@@ -42252,7 +42258,7 @@
         <v>322</v>
       </c>
       <c r="K189" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S189">
         <v>1</v>
@@ -42278,7 +42284,7 @@
         <v>322</v>
       </c>
       <c r="K190" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S190">
         <v>1</v>
@@ -42307,7 +42313,7 @@
         <v>322</v>
       </c>
       <c r="K191" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S191">
         <v>1</v>
@@ -42336,7 +42342,7 @@
         <v>322</v>
       </c>
       <c r="K192" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S192">
         <v>1</v>
@@ -42365,7 +42371,7 @@
         <v>322</v>
       </c>
       <c r="K193" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S193">
         <v>1</v>
@@ -42394,7 +42400,7 @@
         <v>322</v>
       </c>
       <c r="K194" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S194">
         <v>1</v>
@@ -42423,7 +42429,7 @@
         <v>322</v>
       </c>
       <c r="K195" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S195">
         <v>1</v>
@@ -42452,7 +42458,7 @@
         <v>75</v>
       </c>
       <c r="K196" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S196">
         <v>1</v>
@@ -42481,7 +42487,7 @@
         <v>75</v>
       </c>
       <c r="K197" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S197">
         <v>1</v>
@@ -42510,7 +42516,7 @@
         <v>75</v>
       </c>
       <c r="K198" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S198">
         <v>1</v>
@@ -42539,7 +42545,7 @@
         <v>75</v>
       </c>
       <c r="K199" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S199">
         <v>1</v>
@@ -42568,7 +42574,7 @@
         <v>75</v>
       </c>
       <c r="K200" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S200">
         <v>1</v>
@@ -42597,7 +42603,7 @@
         <v>75</v>
       </c>
       <c r="K201" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S201">
         <v>1</v>
@@ -42626,7 +42632,7 @@
         <v>75</v>
       </c>
       <c r="K202" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S202">
         <v>1</v>
@@ -42655,7 +42661,7 @@
         <v>75</v>
       </c>
       <c r="K203" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S203">
         <v>1</v>
@@ -42684,7 +42690,7 @@
         <v>75</v>
       </c>
       <c r="K204" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S204">
         <v>1</v>
@@ -42713,7 +42719,7 @@
         <v>75</v>
       </c>
       <c r="K205" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S205">
         <v>1</v>
@@ -42742,7 +42748,7 @@
         <v>75</v>
       </c>
       <c r="K206" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S206">
         <v>1</v>
@@ -42771,7 +42777,7 @@
         <v>75</v>
       </c>
       <c r="K207" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S207">
         <v>1</v>
@@ -42800,7 +42806,7 @@
         <v>75</v>
       </c>
       <c r="K208" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S208">
         <v>1</v>
@@ -42829,7 +42835,7 @@
         <v>75</v>
       </c>
       <c r="K209" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S209">
         <v>1</v>
@@ -42858,7 +42864,7 @@
         <v>75</v>
       </c>
       <c r="K210" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S210">
         <v>1</v>
@@ -42887,7 +42893,7 @@
         <v>322</v>
       </c>
       <c r="K211" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S211">
         <v>1</v>
@@ -42916,7 +42922,7 @@
         <v>322</v>
       </c>
       <c r="K212" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S212">
         <v>1</v>
@@ -42945,7 +42951,7 @@
         <v>322</v>
       </c>
       <c r="K213" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S213">
         <v>1</v>
@@ -42974,7 +42980,7 @@
         <v>322</v>
       </c>
       <c r="K214" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S214">
         <v>1</v>
@@ -43003,7 +43009,7 @@
         <v>322</v>
       </c>
       <c r="K215" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S215">
         <v>1</v>
@@ -43032,7 +43038,7 @@
         <v>322</v>
       </c>
       <c r="K216" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S216">
         <v>1</v>
@@ -43061,7 +43067,7 @@
         <v>322</v>
       </c>
       <c r="K217" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S217">
         <v>1</v>
@@ -43090,7 +43096,7 @@
         <v>322</v>
       </c>
       <c r="K218" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S218">
         <v>1</v>
@@ -43119,7 +43125,7 @@
         <v>322</v>
       </c>
       <c r="K219" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S219">
         <v>1</v>
@@ -43148,7 +43154,7 @@
         <v>322</v>
       </c>
       <c r="K220" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S220">
         <v>1</v>
@@ -43177,7 +43183,7 @@
         <v>322</v>
       </c>
       <c r="K221" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S221">
         <v>1</v>
@@ -43206,7 +43212,7 @@
         <v>322</v>
       </c>
       <c r="K222" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S222">
         <v>1</v>
@@ -43235,7 +43241,7 @@
         <v>322</v>
       </c>
       <c r="K223" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S223">
         <v>1</v>
@@ -43264,7 +43270,7 @@
         <v>322</v>
       </c>
       <c r="K224" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S224">
         <v>1</v>
@@ -43293,7 +43299,7 @@
         <v>322</v>
       </c>
       <c r="K225" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S225">
         <v>1</v>
@@ -43322,7 +43328,7 @@
         <v>322</v>
       </c>
       <c r="K226" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S226">
         <v>1</v>
@@ -43351,7 +43357,7 @@
         <v>322</v>
       </c>
       <c r="K227" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S227">
         <v>1</v>
@@ -43380,7 +43386,7 @@
         <v>322</v>
       </c>
       <c r="K228" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S228">
         <v>1</v>
@@ -43409,7 +43415,7 @@
         <v>322</v>
       </c>
       <c r="K229" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S229">
         <v>1</v>
@@ -43438,7 +43444,7 @@
         <v>322</v>
       </c>
       <c r="K230" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S230">
         <v>1</v>
@@ -43467,7 +43473,7 @@
         <v>322</v>
       </c>
       <c r="K231" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S231">
         <v>1</v>
@@ -43496,7 +43502,7 @@
         <v>322</v>
       </c>
       <c r="K232" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S232">
         <v>1</v>
@@ -43525,7 +43531,7 @@
         <v>322</v>
       </c>
       <c r="K233" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S233">
         <v>1</v>
@@ -43554,7 +43560,7 @@
         <v>322</v>
       </c>
       <c r="K234" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S234">
         <v>1</v>
@@ -43583,7 +43589,7 @@
         <v>322</v>
       </c>
       <c r="K235" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S235">
         <v>1</v>
@@ -43612,7 +43618,7 @@
         <v>322</v>
       </c>
       <c r="K236" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S236">
         <v>1</v>
@@ -43641,7 +43647,7 @@
         <v>322</v>
       </c>
       <c r="K237" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S237">
         <v>1</v>
@@ -43670,7 +43676,7 @@
         <v>322</v>
       </c>
       <c r="K238" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S238">
         <v>1</v>
@@ -43699,7 +43705,7 @@
         <v>322</v>
       </c>
       <c r="K239" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S239">
         <v>1</v>
@@ -43728,7 +43734,7 @@
         <v>322</v>
       </c>
       <c r="K240" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S240">
         <v>1</v>
@@ -43757,7 +43763,7 @@
         <v>322</v>
       </c>
       <c r="K241" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S241">
         <v>1</v>
@@ -43786,7 +43792,7 @@
         <v>322</v>
       </c>
       <c r="K242" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S242">
         <v>1</v>
@@ -43815,7 +43821,7 @@
         <v>322</v>
       </c>
       <c r="K243" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S243">
         <v>1</v>
@@ -43844,7 +43850,7 @@
         <v>322</v>
       </c>
       <c r="K244" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S244">
         <v>1</v>
@@ -43873,7 +43879,7 @@
         <v>322</v>
       </c>
       <c r="K245" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S245">
         <v>1</v>
@@ -43902,7 +43908,7 @@
         <v>322</v>
       </c>
       <c r="K246" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S246">
         <v>1</v>
@@ -43931,7 +43937,7 @@
         <v>322</v>
       </c>
       <c r="K247" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S247">
         <v>1</v>
@@ -43960,7 +43966,7 @@
         <v>322</v>
       </c>
       <c r="K248" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S248">
         <v>1</v>
@@ -43989,7 +43995,7 @@
         <v>322</v>
       </c>
       <c r="K249" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S249">
         <v>1</v>
@@ -44018,7 +44024,7 @@
         <v>322</v>
       </c>
       <c r="K250" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S250">
         <v>1</v>
@@ -44047,7 +44053,7 @@
         <v>322</v>
       </c>
       <c r="K251" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S251">
         <v>1</v>
@@ -44076,7 +44082,7 @@
         <v>322</v>
       </c>
       <c r="K252" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S252">
         <v>1</v>
@@ -44105,7 +44111,7 @@
         <v>322</v>
       </c>
       <c r="K253" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S253">
         <v>1</v>
@@ -44134,7 +44140,7 @@
         <v>322</v>
       </c>
       <c r="K254" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S254">
         <v>1</v>
@@ -44160,7 +44166,7 @@
         <v>322</v>
       </c>
       <c r="K255" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S255">
         <v>1</v>
@@ -44189,7 +44195,7 @@
         <v>75</v>
       </c>
       <c r="K256" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S256">
         <v>1</v>
@@ -44218,7 +44224,7 @@
         <v>75</v>
       </c>
       <c r="K257" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S257">
         <v>1</v>
@@ -44247,7 +44253,7 @@
         <v>75</v>
       </c>
       <c r="K258" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S258">
         <v>1</v>
@@ -44276,7 +44282,7 @@
         <v>75</v>
       </c>
       <c r="K259" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S259">
         <v>1</v>
@@ -44305,7 +44311,7 @@
         <v>75</v>
       </c>
       <c r="K260" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S260">
         <v>1</v>
@@ -44334,7 +44340,7 @@
         <v>75</v>
       </c>
       <c r="K261" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S261">
         <v>1</v>
@@ -44363,7 +44369,7 @@
         <v>75</v>
       </c>
       <c r="K262" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S262">
         <v>1</v>
@@ -44392,7 +44398,7 @@
         <v>75</v>
       </c>
       <c r="K263" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S263">
         <v>1</v>
@@ -44421,7 +44427,7 @@
         <v>75</v>
       </c>
       <c r="K264" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S264">
         <v>1</v>
@@ -44450,7 +44456,7 @@
         <v>322</v>
       </c>
       <c r="K265" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S265">
         <v>1</v>
@@ -44479,7 +44485,7 @@
         <v>322</v>
       </c>
       <c r="K266" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S266">
         <v>1</v>
@@ -44508,7 +44514,7 @@
         <v>322</v>
       </c>
       <c r="K267" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S267">
         <v>1</v>
@@ -44537,7 +44543,7 @@
         <v>322</v>
       </c>
       <c r="K268" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S268">
         <v>1</v>
@@ -44566,7 +44572,7 @@
         <v>322</v>
       </c>
       <c r="K269" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S269">
         <v>1</v>
@@ -44595,7 +44601,7 @@
         <v>322</v>
       </c>
       <c r="K270" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S270">
         <v>1</v>
@@ -44624,7 +44630,7 @@
         <v>322</v>
       </c>
       <c r="K271" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S271">
         <v>1</v>
@@ -44653,7 +44659,7 @@
         <v>322</v>
       </c>
       <c r="K272" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S272">
         <v>1</v>
@@ -44682,7 +44688,7 @@
         <v>322</v>
       </c>
       <c r="K273" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S273">
         <v>1</v>
@@ -44711,7 +44717,7 @@
         <v>322</v>
       </c>
       <c r="K274" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S274">
         <v>1</v>
@@ -44740,7 +44746,7 @@
         <v>322</v>
       </c>
       <c r="K275" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S275">
         <v>1</v>
@@ -44769,7 +44775,7 @@
         <v>322</v>
       </c>
       <c r="K276" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S276">
         <v>1</v>
@@ -44798,7 +44804,7 @@
         <v>322</v>
       </c>
       <c r="K277" t="s">
-        <v>345</v>
+        <v>1284</v>
       </c>
       <c r="S277">
         <v>1</v>

--- a/КМК с 01.02.xlsx
+++ b/КМК с 01.02.xlsx
@@ -36750,8 +36750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40158,7 +40158,7 @@
         <v>561</v>
       </c>
       <c r="D117" t="s">
-        <v>344</v>
+        <v>581</v>
       </c>
       <c r="F117" t="s">
         <v>1156</v>
@@ -40187,7 +40187,7 @@
         <v>562</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>581</v>
       </c>
       <c r="F118" t="s">
         <v>1156</v>
